--- a/Spring_5/FO.RT.GDC.SDC.005-001.xlsx
+++ b/Spring_5/FO.RT.GDC.SDC.005-001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sdc-docs\Spring_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sdc-docs\Spring_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Proyecto</t>
   </si>
@@ -86,17 +86,19 @@
     <t>El proyecto avanza de acuerdo al cronograma. No se presentaron inconvenientes que retrasaran el desarrollo.</t>
   </si>
   <si>
-    <t>El despliegue del módulo API se realizó sin mayores inconvenientes. Asímismo, las actualizaciones se realizan con facilidad y sin inconvenientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El desarrollo con VueJS sgue presentando sus mas y sus menos debido a que se va aprendiendo según se avanza el proyecto. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El adaptar el módulo APP Móvil al estandar JSON API requirió trabajo adicional al esperado pero no presentó retraso.
-</t>
-  </si>
-  <si>
-    <t>Implementar funcionalidades a la plataforma web de gestión de anuncios utilizando componentes de Vuejs facilita la altamente el trabajo. La estructura modular permite una integración rápida y de menor impacto en el resto del sistema.</t>
+    <t>El desarrollo del front-end con VueJS se realizó con mayor facilidad de la estimada debido en gran parte al conocimiento adquirido sobre el framework a lo largo del proyecto.</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t>Se migraron los Módulos Backend API y Front-End a otro alojamiento. Esta nueva implementación se deció realizarla utilizando dockers para facilitar el re-despliegue de actualizaciones de prueba.</t>
+  </si>
+  <si>
+    <t>Se optó por un rediseño de arquitectura en el Backend. Este cambio se hizo para dar mayor claridad al código y reforzar el uso de inyección de dependencias, desacoplamiento entre otros. Tomó mayor tiempo del esperado.</t>
+  </si>
+  <si>
+    <t>Aplicación de patrones de arquitectura conocidos como Inyección de Dependencias, Inversión del Control, Desacoplamiento o el Principio Open-Closed.</t>
   </si>
 </sst>
 </file>
@@ -169,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -229,11 +231,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -249,6 +313,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,6 +337,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -283,13 +362,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,7 +665,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:E28"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,23 +678,23 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
-        <v>43362</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="11">
+        <v>43424</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -612,237 +703,236 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="B17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
+    <mergeCell ref="A28:E29"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B25:E25"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B25:E25"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
